--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTPaper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07E89E-2175-499B-B79C-7EBA455F59CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130D330-0F2C-4E59-89A4-016484310875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18825" yWindow="420" windowWidth="16200" windowHeight="10320" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet7_2" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -6693,23 +6692,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA70"/>
@@ -26603,7 +26585,7 @@
   <dimension ref="A1:AJ128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26710,13 +26692,13 @@
       <c r="H3" s="50">
         <v>0.34187000000000001</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="50">
         <v>2E-3</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="50">
         <v>0.10100000000000001</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="50">
         <v>0.318</v>
       </c>
       <c r="L3" s="40">
@@ -26784,13 +26766,13 @@
       <c r="H4" s="50">
         <v>7.1199999999999996E-3</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="50">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="50">
         <v>0.155</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="50">
         <v>0.39300000000000002</v>
       </c>
       <c r="L4" s="40">
@@ -26858,13 +26840,13 @@
       <c r="H5" s="50">
         <v>9.3999999999999997E-4</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="50">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="50">
         <v>0.159</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="50">
         <v>0.39900000000000002</v>
       </c>
       <c r="L5" s="40">
@@ -26932,13 +26914,13 @@
       <c r="H6" s="50">
         <v>5.8590000000000003E-2</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="50">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="50">
         <v>0.16</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="50">
         <v>0.4</v>
       </c>
       <c r="L6" s="40">
@@ -27006,13 +26988,13 @@
       <c r="H7" s="50">
         <v>1.065E-2</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="50">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="50">
         <v>0.158</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="50">
         <v>0.39800000000000002</v>
       </c>
       <c r="L7" s="40">
@@ -27080,13 +27062,13 @@
       <c r="H8" s="50">
         <v>0.40206999999999998</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="50">
         <v>2E-3</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="50">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="50">
         <v>0.311</v>
       </c>
       <c r="L8" s="40">
@@ -27154,13 +27136,13 @@
       <c r="H9" s="63">
         <v>0.90983999999999998</v>
       </c>
-      <c r="I9" s="40">
-        <v>0</v>
-      </c>
-      <c r="J9" s="40">
+      <c r="I9" s="50">
+        <v>0</v>
+      </c>
+      <c r="J9" s="50">
         <v>0.108</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="50">
         <v>0.32800000000000001</v>
       </c>
       <c r="L9" s="40">
@@ -27228,13 +27210,13 @@
       <c r="H10" s="63">
         <v>0.43006</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="50">
         <v>2E-3</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="50">
         <v>0.155</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="50">
         <v>0.39300000000000002</v>
       </c>
       <c r="L10" s="40">
@@ -27302,13 +27284,13 @@
       <c r="H11" s="63">
         <v>0.19567000000000001</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="50">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="50">
         <v>0.158</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="50">
         <v>0.39800000000000002</v>
       </c>
       <c r="L11" s="40">
@@ -27376,13 +27358,13 @@
       <c r="H12" s="63">
         <v>0.49437999999999999</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="50">
         <v>2E-3</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="50">
         <v>0.16</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="50">
         <v>0.4</v>
       </c>
       <c r="L12" s="40">
@@ -27450,13 +27432,13 @@
       <c r="H13" s="63">
         <v>0.23032</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="50">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="50">
         <v>0.159</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="50">
         <v>0.39800000000000002</v>
       </c>
       <c r="L13" s="40">
@@ -27524,13 +27506,13 @@
       <c r="H14" s="63">
         <v>0.52363000000000004</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="50">
         <v>1E-3</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="50">
         <v>0.10299999999999999</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="50">
         <v>0.32100000000000001</v>
       </c>
       <c r="L14" s="40">
@@ -38583,7 +38565,7 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
